--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H2">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I2">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J2">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N2">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O2">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P2">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q2">
-        <v>3.523285121245495</v>
+        <v>3.922041593848</v>
       </c>
       <c r="R2">
-        <v>3.523285121245495</v>
+        <v>15.688166375392</v>
       </c>
       <c r="S2">
-        <v>0.0005836725529501317</v>
+        <v>0.000494587851521768</v>
       </c>
       <c r="T2">
-        <v>0.0005836725529501317</v>
+        <v>0.0004031904291997109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H3">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I3">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J3">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N3">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O3">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P3">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q3">
-        <v>4.142033708522952</v>
+        <v>4.839529093205333</v>
       </c>
       <c r="R3">
-        <v>4.142033708522952</v>
+        <v>29.037174559232</v>
       </c>
       <c r="S3">
-        <v>0.0006861753465482988</v>
+        <v>0.0006102873310522773</v>
       </c>
       <c r="T3">
-        <v>0.0006861753465482988</v>
+        <v>0.0007462638139564695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H4">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I4">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J4">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N4">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O4">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P4">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q4">
-        <v>0.8224832260930257</v>
+        <v>1.148599508074667</v>
       </c>
       <c r="R4">
-        <v>0.8224832260930257</v>
+        <v>6.891597048447999</v>
       </c>
       <c r="S4">
-        <v>0.0001362537710722297</v>
+        <v>0.0001448437884617766</v>
       </c>
       <c r="T4">
-        <v>0.0001362537710722297</v>
+        <v>0.0001771160443704677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H5">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I5">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J5">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N5">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O5">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P5">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q5">
-        <v>2.240900037473863</v>
+        <v>3.113458804288</v>
       </c>
       <c r="R5">
-        <v>2.240900037473863</v>
+        <v>18.680752825728</v>
       </c>
       <c r="S5">
-        <v>0.0003712307692305212</v>
+        <v>0.0003926217669975107</v>
       </c>
       <c r="T5">
-        <v>0.0003712307692305212</v>
+        <v>0.0004801007695452099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H6">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I6">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J6">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N6">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O6">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P6">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q6">
-        <v>6.989888238864212</v>
+        <v>8.779242539050667</v>
       </c>
       <c r="R6">
-        <v>6.989888238864212</v>
+        <v>52.675455234304</v>
       </c>
       <c r="S6">
-        <v>0.001157955082491804</v>
+        <v>0.001107103686046696</v>
       </c>
       <c r="T6">
-        <v>0.001157955082491804</v>
+        <v>0.001353774488108621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H7">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I7">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J7">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.3843566022193</v>
+        <v>63.67333599999999</v>
       </c>
       <c r="N7">
-        <v>63.3843566022193</v>
+        <v>127.346672</v>
       </c>
       <c r="O7">
-        <v>0.8907580439843111</v>
+        <v>0.8715652181167722</v>
       </c>
       <c r="P7">
-        <v>0.8907580439843111</v>
+        <v>0.8279602359348489</v>
       </c>
       <c r="Q7">
-        <v>144.4772452097314</v>
+        <v>147.955438623104</v>
       </c>
       <c r="R7">
-        <v>144.4772452097314</v>
+        <v>591.8217544924159</v>
       </c>
       <c r="S7">
-        <v>0.02393431120469639</v>
+        <v>0.01865787518019826</v>
       </c>
       <c r="T7">
-        <v>0.02393431120469639</v>
+        <v>0.0152099908615076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H8">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I8">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J8">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N8">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O8">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P8">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q8">
-        <v>45.10193023256744</v>
+        <v>52.94410532283517</v>
       </c>
       <c r="R8">
-        <v>45.10193023256744</v>
+        <v>317.6646319370111</v>
       </c>
       <c r="S8">
-        <v>0.007471651556975172</v>
+        <v>0.006676500153245972</v>
       </c>
       <c r="T8">
-        <v>0.007471651556975172</v>
+        <v>0.008164073240143168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H9">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I9">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J9">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N9">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O9">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P9">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q9">
-        <v>53.02259366301452</v>
+        <v>65.32937805287288</v>
       </c>
       <c r="R9">
-        <v>53.02259366301452</v>
+        <v>587.964402475856</v>
       </c>
       <c r="S9">
-        <v>0.008783800215518457</v>
+        <v>0.008238341169840223</v>
       </c>
       <c r="T9">
-        <v>0.008783800215518457</v>
+        <v>0.01511085579511955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H10">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I10">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J10">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N10">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O10">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P10">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q10">
-        <v>10.52869120838884</v>
+        <v>15.50508118645378</v>
       </c>
       <c r="R10">
-        <v>10.52869120838884</v>
+        <v>139.545730678084</v>
       </c>
       <c r="S10">
-        <v>0.001744198344825277</v>
+        <v>0.001955263504524669</v>
       </c>
       <c r="T10">
-        <v>0.001744198344825277</v>
+        <v>0.003586365780346212</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H11">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I11">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J11">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N11">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O11">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P11">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q11">
-        <v>28.68598869244385</v>
+        <v>42.02895020570267</v>
       </c>
       <c r="R11">
-        <v>28.68598869244385</v>
+        <v>378.2605518513241</v>
       </c>
       <c r="S11">
-        <v>0.004752162733880167</v>
+        <v>0.005300047867049586</v>
       </c>
       <c r="T11">
-        <v>0.004752162733880167</v>
+        <v>0.009721405969373145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H12">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I12">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J12">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N12">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O12">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P12">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q12">
-        <v>89.47826838699123</v>
+        <v>118.5120378048258</v>
       </c>
       <c r="R12">
-        <v>89.47826838699123</v>
+        <v>1066.608340243432</v>
       </c>
       <c r="S12">
-        <v>0.01482310047179211</v>
+        <v>0.01494492415615798</v>
       </c>
       <c r="T12">
-        <v>0.01482310047179211</v>
+        <v>0.02741214391793414</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H13">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I13">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J13">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.3843566022193</v>
+        <v>63.67333599999999</v>
       </c>
       <c r="N13">
-        <v>63.3843566022193</v>
+        <v>127.346672</v>
       </c>
       <c r="O13">
-        <v>0.8907580439843111</v>
+        <v>0.8715652181167722</v>
       </c>
       <c r="P13">
-        <v>0.8907580439843111</v>
+        <v>0.8279602359348489</v>
       </c>
       <c r="Q13">
-        <v>1849.467871433392</v>
+        <v>1997.268039644221</v>
       </c>
       <c r="R13">
-        <v>1849.467871433392</v>
+        <v>11983.60823786533</v>
       </c>
       <c r="S13">
-        <v>0.3063855455834276</v>
+        <v>0.2518648731798769</v>
       </c>
       <c r="T13">
-        <v>0.3063855455834276</v>
+        <v>0.3079822098498992</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H14">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I14">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J14">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N14">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O14">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P14">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q14">
-        <v>4.510389279113633</v>
+        <v>0.06313475864750001</v>
       </c>
       <c r="R14">
-        <v>4.510389279113633</v>
+        <v>0.378808551885</v>
       </c>
       <c r="S14">
-        <v>0.0007471976677290671</v>
+        <v>7.961589363252062E-06</v>
       </c>
       <c r="T14">
-        <v>0.0007471976677290671</v>
+        <v>9.735489729290802E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H15">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I15">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J15">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N15">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O15">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P15">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q15">
-        <v>5.302490088013363</v>
+        <v>0.07790394210666667</v>
       </c>
       <c r="R15">
-        <v>5.302490088013363</v>
+        <v>0.7011354789599999</v>
       </c>
       <c r="S15">
-        <v>0.0008784182432472176</v>
+        <v>9.824052710723425E-06</v>
       </c>
       <c r="T15">
-        <v>0.0008784182432472176</v>
+        <v>1.801938530767039E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H16">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I16">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J16">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N16">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O16">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P16">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q16">
-        <v>1.052914935226524</v>
+        <v>0.01848949099333333</v>
       </c>
       <c r="R16">
-        <v>1.052914935226524</v>
+        <v>0.16640541894</v>
       </c>
       <c r="S16">
-        <v>0.0001744274241608182</v>
+        <v>2.33161158730899E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001744274241608182</v>
+        <v>4.276667564465438E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H17">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I17">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J17">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N17">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O17">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P17">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q17">
-        <v>2.868723693021605</v>
+        <v>0.05011866026</v>
       </c>
       <c r="R17">
-        <v>2.868723693021605</v>
+        <v>0.45106794234</v>
       </c>
       <c r="S17">
-        <v>0.0004752369518770437</v>
+        <v>6.320198270723258E-06</v>
       </c>
       <c r="T17">
-        <v>0.0004752369518770437</v>
+        <v>1.159257703663605E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H18">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I18">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J18">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N18">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O18">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P18">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q18">
-        <v>8.948216193082509</v>
+        <v>0.1413231720133334</v>
       </c>
       <c r="R18">
-        <v>8.948216193082509</v>
+        <v>1.27190854812</v>
       </c>
       <c r="S18">
-        <v>0.001482374548194352</v>
+        <v>1.782151523480877E-05</v>
       </c>
       <c r="T18">
-        <v>0.001482374548194352</v>
+        <v>3.268841884693935E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H19">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I19">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J19">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.3843566022193</v>
+        <v>63.67333599999999</v>
       </c>
       <c r="N19">
-        <v>63.3843566022193</v>
+        <v>127.346672</v>
       </c>
       <c r="O19">
-        <v>0.8907580439843111</v>
+        <v>0.8715652181167722</v>
       </c>
       <c r="P19">
-        <v>0.8907580439843111</v>
+        <v>0.8279602359348489</v>
       </c>
       <c r="Q19">
-        <v>184.9548348898552</v>
+        <v>2.38170113308</v>
       </c>
       <c r="R19">
-        <v>184.9548348898552</v>
+        <v>14.29020679848</v>
       </c>
       <c r="S19">
-        <v>0.03063988775977064</v>
+        <v>0.0003003436904454844</v>
       </c>
       <c r="T19">
-        <v>0.03063988775977064</v>
+        <v>0.000367262462327616</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H20">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I20">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J20">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.545718567738</v>
+        <v>1.6878695</v>
       </c>
       <c r="N20">
-        <v>1.545718567738</v>
+        <v>3.375739</v>
       </c>
       <c r="O20">
-        <v>0.02172241420054619</v>
+        <v>0.02310367952010788</v>
       </c>
       <c r="P20">
-        <v>0.02172241420054619</v>
+        <v>0.02194778720950377</v>
       </c>
       <c r="Q20">
-        <v>77.98972987780077</v>
+        <v>0.0743725937785</v>
       </c>
       <c r="R20">
-        <v>77.98972987780077</v>
+        <v>0.4462355626710001</v>
       </c>
       <c r="S20">
-        <v>0.01291989242289181</v>
+        <v>9.378733113567049E-06</v>
       </c>
       <c r="T20">
-        <v>0.01291989242289181</v>
+        <v>1.14683834765871E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H21">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I21">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J21">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.81717294829586</v>
+        <v>2.082714666666666</v>
       </c>
       <c r="N21">
-        <v>1.81717294829586</v>
+        <v>6.248144</v>
       </c>
       <c r="O21">
-        <v>0.02553723833095671</v>
+        <v>0.02850834865520999</v>
       </c>
       <c r="P21">
-        <v>0.02553723833095671</v>
+        <v>0.04062308577953974</v>
       </c>
       <c r="Q21">
-        <v>91.68604837699193</v>
+        <v>0.09177065635733332</v>
       </c>
       <c r="R21">
-        <v>91.68604837699193</v>
+        <v>0.825935907216</v>
       </c>
       <c r="S21">
-        <v>0.01518884452564274</v>
+        <v>1.157271045562375E-05</v>
       </c>
       <c r="T21">
-        <v>0.01518884452564274</v>
+        <v>2.122679253607487E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H22">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I22">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J22">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.360835853606881</v>
+        <v>0.4943053333333333</v>
       </c>
       <c r="N22">
-        <v>0.360835853606881</v>
+        <v>1.482916</v>
       </c>
       <c r="O22">
-        <v>0.005070926903548006</v>
+        <v>0.006766087073919772</v>
       </c>
       <c r="P22">
-        <v>0.005070926903548006</v>
+        <v>0.009641362918628627</v>
       </c>
       <c r="Q22">
-        <v>18.20608960802514</v>
+        <v>0.02178057590266666</v>
       </c>
       <c r="R22">
-        <v>18.20608960802514</v>
+        <v>0.196025183124</v>
       </c>
       <c r="S22">
-        <v>0.003016047363489681</v>
+        <v>2.746632839769977E-06</v>
       </c>
       <c r="T22">
-        <v>0.003016047363489681</v>
+        <v>5.037904100869954E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H23">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I23">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J23">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.983116800704356</v>
+        <v>1.339892</v>
       </c>
       <c r="N23">
-        <v>0.983116800704356</v>
+        <v>4.019676</v>
       </c>
       <c r="O23">
-        <v>0.01381601463432484</v>
+        <v>0.01834053838851664</v>
       </c>
       <c r="P23">
-        <v>0.01381601463432484</v>
+        <v>0.02613442375111028</v>
       </c>
       <c r="Q23">
-        <v>49.60347590147894</v>
+        <v>0.059039661196</v>
       </c>
       <c r="R23">
-        <v>49.60347590147894</v>
+        <v>0.531356950764</v>
       </c>
       <c r="S23">
-        <v>0.008217384179337104</v>
+        <v>7.445178355911746E-06</v>
       </c>
       <c r="T23">
-        <v>0.008217384179337104</v>
+        <v>1.36560278563105E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H24">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I24">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J24">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.06656988163549</v>
+        <v>3.778189333333334</v>
       </c>
       <c r="N24">
-        <v>3.06656988163549</v>
+        <v>11.334568</v>
       </c>
       <c r="O24">
-        <v>0.04309536194631323</v>
+        <v>0.05171612824547357</v>
       </c>
       <c r="P24">
-        <v>0.04309536194631323</v>
+        <v>0.07369310440636871</v>
       </c>
       <c r="Q24">
-        <v>154.7247744265237</v>
+        <v>0.1664783565946667</v>
       </c>
       <c r="R24">
-        <v>154.7247744265237</v>
+        <v>1.498305209352</v>
       </c>
       <c r="S24">
-        <v>0.02563193184383495</v>
+        <v>2.099370206633815E-05</v>
       </c>
       <c r="T24">
-        <v>0.02563193184383495</v>
+        <v>3.850687875023896E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.044063</v>
+      </c>
+      <c r="H25">
+        <v>0.132189</v>
+      </c>
+      <c r="I25">
+        <v>0.0004059411015204066</v>
+      </c>
+      <c r="J25">
+        <v>0.0005225302836734765</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>63.67333599999999</v>
+      </c>
+      <c r="N25">
+        <v>127.346672</v>
+      </c>
+      <c r="O25">
+        <v>0.8715652181167722</v>
+      </c>
+      <c r="P25">
+        <v>0.8279602359348489</v>
+      </c>
+      <c r="Q25">
+        <v>2.805638204167999</v>
+      </c>
+      <c r="R25">
+        <v>16.833829225008</v>
+      </c>
+      <c r="S25">
+        <v>0.0003538041446891959</v>
+      </c>
+      <c r="T25">
+        <v>0.0004326342969533951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.439148</v>
+      </c>
+      <c r="H26">
+        <v>13.317444</v>
+      </c>
+      <c r="I26">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J26">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6878695</v>
+      </c>
+      <c r="N26">
+        <v>3.375739</v>
+      </c>
+      <c r="O26">
+        <v>0.02310367952010788</v>
+      </c>
+      <c r="P26">
+        <v>0.02194778720950377</v>
+      </c>
+      <c r="Q26">
+        <v>7.492702515186001</v>
+      </c>
+      <c r="R26">
+        <v>44.956215091116</v>
+      </c>
+      <c r="S26">
+        <v>0.0009448649511750209</v>
+      </c>
+      <c r="T26">
+        <v>0.001155387775987216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.439148</v>
+      </c>
+      <c r="H27">
+        <v>13.317444</v>
+      </c>
+      <c r="I27">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J27">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.082714666666666</v>
+      </c>
+      <c r="N27">
+        <v>6.248144</v>
+      </c>
+      <c r="O27">
+        <v>0.02850834865520999</v>
+      </c>
+      <c r="P27">
+        <v>0.04062308577953974</v>
+      </c>
+      <c r="Q27">
+        <v>9.245478647103999</v>
+      </c>
+      <c r="R27">
+        <v>83.209307823936</v>
+      </c>
+      <c r="S27">
+        <v>0.001165898247365391</v>
+      </c>
+      <c r="T27">
+        <v>0.002138503361843989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.439148</v>
+      </c>
+      <c r="H28">
+        <v>13.317444</v>
+      </c>
+      <c r="I28">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J28">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4943053333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.482916</v>
+      </c>
+      <c r="O28">
+        <v>0.006766087073919772</v>
+      </c>
+      <c r="P28">
+        <v>0.009641362918628627</v>
+      </c>
+      <c r="Q28">
+        <v>2.194294531856</v>
+      </c>
+      <c r="R28">
+        <v>19.748650786704</v>
+      </c>
+      <c r="S28">
+        <v>0.0002767108385130204</v>
+      </c>
+      <c r="T28">
+        <v>0.000507546057090272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.439148</v>
+      </c>
+      <c r="H29">
+        <v>13.317444</v>
+      </c>
+      <c r="I29">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J29">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.339892</v>
+      </c>
+      <c r="N29">
+        <v>4.019676</v>
+      </c>
+      <c r="O29">
+        <v>0.01834053838851664</v>
+      </c>
+      <c r="P29">
+        <v>0.02613442375111028</v>
+      </c>
+      <c r="Q29">
+        <v>5.947978892016001</v>
+      </c>
+      <c r="R29">
+        <v>53.53181002814401</v>
+      </c>
+      <c r="S29">
+        <v>0.0007500680527492209</v>
+      </c>
+      <c r="T29">
+        <v>0.001375783054859747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.439148</v>
+      </c>
+      <c r="H30">
+        <v>13.317444</v>
+      </c>
+      <c r="I30">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J30">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.778189333333334</v>
+      </c>
+      <c r="N30">
+        <v>11.334568</v>
+      </c>
+      <c r="O30">
+        <v>0.05171612824547357</v>
+      </c>
+      <c r="P30">
+        <v>0.07369310440636871</v>
+      </c>
+      <c r="Q30">
+        <v>16.771941622688</v>
+      </c>
+      <c r="R30">
+        <v>150.947474604192</v>
+      </c>
+      <c r="S30">
+        <v>0.002115020551037853</v>
+      </c>
+      <c r="T30">
+        <v>0.003879393908502957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.439148</v>
+      </c>
+      <c r="H31">
+        <v>13.317444</v>
+      </c>
+      <c r="I31">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J31">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>63.67333599999999</v>
+      </c>
+      <c r="N31">
+        <v>127.346672</v>
+      </c>
+      <c r="O31">
+        <v>0.8715652181167722</v>
+      </c>
+      <c r="P31">
+        <v>0.8279602359348489</v>
+      </c>
+      <c r="Q31">
+        <v>282.655362157728</v>
+      </c>
+      <c r="R31">
+        <v>1695.932172946368</v>
+      </c>
+      <c r="S31">
+        <v>0.03564416769826737</v>
+      </c>
+      <c r="T31">
+        <v>0.04358594907410004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>70.333607</v>
+      </c>
+      <c r="H32">
+        <v>140.667214</v>
+      </c>
+      <c r="I32">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J32">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.6878695</v>
+      </c>
+      <c r="N32">
+        <v>3.375739</v>
+      </c>
+      <c r="O32">
+        <v>0.02310367952010788</v>
+      </c>
+      <c r="P32">
+        <v>0.02194778720950377</v>
+      </c>
+      <c r="Q32">
+        <v>118.7139500802865</v>
+      </c>
+      <c r="R32">
+        <v>474.855800321146</v>
+      </c>
+      <c r="S32">
+        <v>0.01497038624168829</v>
+      </c>
+      <c r="T32">
+        <v>0.0122039318909678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>70.333607</v>
+      </c>
+      <c r="H33">
+        <v>140.667214</v>
+      </c>
+      <c r="I33">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J33">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.082714666666666</v>
+      </c>
+      <c r="N33">
+        <v>6.248144</v>
+      </c>
+      <c r="O33">
+        <v>0.02850834865520999</v>
+      </c>
+      <c r="P33">
+        <v>0.04062308577953974</v>
+      </c>
+      <c r="Q33">
+        <v>146.4848348584693</v>
+      </c>
+      <c r="R33">
+        <v>878.909009150816</v>
+      </c>
+      <c r="S33">
+        <v>0.01847242514378575</v>
+      </c>
+      <c r="T33">
+        <v>0.02258821663077598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>70.333607</v>
+      </c>
+      <c r="H34">
+        <v>140.667214</v>
+      </c>
+      <c r="I34">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J34">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4943053333333333</v>
+      </c>
+      <c r="N34">
+        <v>1.482916</v>
+      </c>
+      <c r="O34">
+        <v>0.006766087073919772</v>
+      </c>
+      <c r="P34">
+        <v>0.009641362918628627</v>
+      </c>
+      <c r="Q34">
+        <v>34.76627705267067</v>
+      </c>
+      <c r="R34">
+        <v>208.597662316024</v>
+      </c>
+      <c r="S34">
+        <v>0.004384190697993227</v>
+      </c>
+      <c r="T34">
+        <v>0.00536102046515634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.455323178223</v>
-      </c>
-      <c r="H25">
-        <v>50.455323178223</v>
-      </c>
-      <c r="I25">
-        <v>0.5947723997716127</v>
-      </c>
-      <c r="J25">
-        <v>0.5947723997716127</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>63.3843566022193</v>
-      </c>
-      <c r="N25">
-        <v>63.3843566022193</v>
-      </c>
-      <c r="O25">
-        <v>0.8907580439843111</v>
-      </c>
-      <c r="P25">
-        <v>0.8907580439843111</v>
-      </c>
-      <c r="Q25">
-        <v>3198.078196808707</v>
-      </c>
-      <c r="R25">
-        <v>3198.078196808707</v>
-      </c>
-      <c r="S25">
-        <v>0.5297982994364164</v>
-      </c>
-      <c r="T25">
-        <v>0.5297982994364164</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>70.333607</v>
+      </c>
+      <c r="H35">
+        <v>140.667214</v>
+      </c>
+      <c r="I35">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J35">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.339892</v>
+      </c>
+      <c r="N35">
+        <v>4.019676</v>
+      </c>
+      <c r="O35">
+        <v>0.01834053838851664</v>
+      </c>
+      <c r="P35">
+        <v>0.02613442375111028</v>
+      </c>
+      <c r="Q35">
+        <v>94.23943735044401</v>
+      </c>
+      <c r="R35">
+        <v>565.436624102664</v>
+      </c>
+      <c r="S35">
+        <v>0.01188403532509368</v>
+      </c>
+      <c r="T35">
+        <v>0.01453188535243924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>70.333607</v>
+      </c>
+      <c r="H36">
+        <v>140.667214</v>
+      </c>
+      <c r="I36">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J36">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.778189333333334</v>
+      </c>
+      <c r="N36">
+        <v>11.334568</v>
+      </c>
+      <c r="O36">
+        <v>0.05171612824547357</v>
+      </c>
+      <c r="P36">
+        <v>0.07369310440636871</v>
+      </c>
+      <c r="Q36">
+        <v>265.7336837422587</v>
+      </c>
+      <c r="R36">
+        <v>1594.402102453552</v>
+      </c>
+      <c r="S36">
+        <v>0.03351026463492989</v>
+      </c>
+      <c r="T36">
+        <v>0.04097659679422582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>70.333607</v>
+      </c>
+      <c r="H37">
+        <v>140.667214</v>
+      </c>
+      <c r="I37">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J37">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>63.67333599999999</v>
+      </c>
+      <c r="N37">
+        <v>127.346672</v>
+      </c>
+      <c r="O37">
+        <v>0.8715652181167722</v>
+      </c>
+      <c r="P37">
+        <v>0.8279602359348489</v>
+      </c>
+      <c r="Q37">
+        <v>4478.375390602951</v>
+      </c>
+      <c r="R37">
+        <v>17913.50156241181</v>
+      </c>
+      <c r="S37">
+        <v>0.564744154223295</v>
+      </c>
+      <c r="T37">
+        <v>0.460382189390061</v>
       </c>
     </row>
   </sheetData>
